--- a/working_windows_extension/version_4/member web/bestcheque/dist/Expenses.xlsx
+++ b/working_windows_extension/version_4/member web/bestcheque/dist/Expenses.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Confirmation Number</t>
-  </si>
-  <si>
-    <t>Conf/Cxl#</t>
-  </si>
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Conf Number</t>
+  </si>
+  <si>
+    <t>Guest Name</t>
   </si>
   <si>
     <t>Price</t>
@@ -37,7 +34,7 @@
     <t>YRIS HERNANDEZ</t>
   </si>
   <si>
-    <t>Checked in, but different date</t>
+    <t>Date changed</t>
   </si>
   <si>
     <t>480526504-01</t>
@@ -381,13 +378,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,50 +397,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>97.58</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>97.58</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>400.16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>17002077715</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>400.16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4">
-        <v>17002077715</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>130.38</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>130.38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/working_windows_extension/version_4/member web/bestcheque/dist/Expenses.xlsx
+++ b/working_windows_extension/version_4/member web/bestcheque/dist/Expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Conf Number</t>
   </si>
@@ -28,22 +28,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>227249103-01</t>
-  </si>
-  <si>
-    <t>YRIS HERNANDEZ</t>
+    <t>932750504-01</t>
+  </si>
+  <si>
+    <t>SHOKO MIZUTSUGI</t>
   </si>
   <si>
     <t>Date changed</t>
   </si>
   <si>
-    <t>480526504-01</t>
-  </si>
-  <si>
-    <t>KAVITA CHALLA</t>
-  </si>
-  <si>
-    <t>RUIYING DING</t>
+    <t>DANIEL MARINELLI</t>
   </si>
   <si>
     <t>Cancelled</t>
@@ -378,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,38 +400,24 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>97.58</v>
+        <v>138.58</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>57602027439</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>350.96</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>400.16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>17002077715</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>130.38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
